--- a/planejamento/cronograma-v3.xlsx
+++ b/planejamento/cronograma-v3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\senai-dev-2s2019\planejamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4708008-2EFF-492F-B205-BF9650881B9C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34C1239-FCBA-4EB2-8558-0B0A97771D0D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="222">
   <si>
     <t>3. Desenvolver interfaces web utilizando frameworks</t>
   </si>
@@ -1460,28 +1460,10 @@
     <t>Gufos - DOM - Arrays, Funções, Map, Filter, Reduce</t>
   </si>
   <si>
-    <t>Início - Gufos - API
-TiposEventos - XMLHttpRequest, Fetch</t>
-  </si>
-  <si>
-    <t>ex.: ex1</t>
-  </si>
-  <si>
-    <t>ex.: ex2</t>
-  </si>
-  <si>
-    <t>ex.: ex3</t>
-  </si>
-  <si>
     <t>Desafio Hroads</t>
   </si>
   <si>
     <t>Desafio Ssolve</t>
-  </si>
-  <si>
-    <t>Apresenação JavaScript
-Início - gufos.js
-categorias.html (DOM, Id, Class, Function)</t>
   </si>
   <si>
     <t>Apresentação - Mobile
@@ -1690,6 +1672,20 @@
   </si>
   <si>
     <t>24|9</t>
+  </si>
+  <si>
+    <t>categorias.html - cadastrar</t>
+  </si>
+  <si>
+    <t>Apresenação JavaScript
+Início - gufos.js
+categorias.html (DOM, Id, Class, Criar Elementos) - XMLHttpRequest, Fetch</t>
+  </si>
+  <si>
+    <t>exercícios</t>
+  </si>
+  <si>
+    <t>exercícios - livros</t>
   </si>
 </sst>
 </file>
@@ -3347,6 +3343,21 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="24" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="23" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3442,21 +3453,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="24" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="23" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4044,123 +4040,123 @@
   <sheetData>
     <row r="1" spans="1:119" s="61" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="59"/>
-      <c r="B1" s="439" t="s">
+      <c r="B1" s="444" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="440"/>
-      <c r="D1" s="440"/>
-      <c r="E1" s="440"/>
-      <c r="F1" s="440"/>
-      <c r="G1" s="440"/>
-      <c r="H1" s="440"/>
-      <c r="I1" s="440"/>
-      <c r="J1" s="440"/>
-      <c r="K1" s="440"/>
-      <c r="L1" s="440"/>
-      <c r="M1" s="440"/>
-      <c r="N1" s="440"/>
-      <c r="O1" s="440"/>
-      <c r="P1" s="440"/>
-      <c r="Q1" s="440"/>
-      <c r="R1" s="439" t="s">
+      <c r="C1" s="445"/>
+      <c r="D1" s="445"/>
+      <c r="E1" s="445"/>
+      <c r="F1" s="445"/>
+      <c r="G1" s="445"/>
+      <c r="H1" s="445"/>
+      <c r="I1" s="445"/>
+      <c r="J1" s="445"/>
+      <c r="K1" s="445"/>
+      <c r="L1" s="445"/>
+      <c r="M1" s="445"/>
+      <c r="N1" s="445"/>
+      <c r="O1" s="445"/>
+      <c r="P1" s="445"/>
+      <c r="Q1" s="445"/>
+      <c r="R1" s="444" t="s">
         <v>65</v>
       </c>
-      <c r="S1" s="440"/>
-      <c r="T1" s="440"/>
-      <c r="U1" s="440"/>
-      <c r="V1" s="440"/>
-      <c r="W1" s="440"/>
-      <c r="X1" s="440"/>
-      <c r="Y1" s="440"/>
-      <c r="Z1" s="440"/>
-      <c r="AA1" s="440"/>
-      <c r="AB1" s="440"/>
-      <c r="AC1" s="440"/>
-      <c r="AD1" s="440"/>
-      <c r="AE1" s="440"/>
-      <c r="AF1" s="440"/>
-      <c r="AG1" s="440"/>
-      <c r="AH1" s="440"/>
-      <c r="AI1" s="440"/>
-      <c r="AJ1" s="440"/>
-      <c r="AK1" s="440"/>
-      <c r="AL1" s="440"/>
-      <c r="AM1" s="441"/>
-      <c r="AN1" s="439" t="s">
+      <c r="S1" s="445"/>
+      <c r="T1" s="445"/>
+      <c r="U1" s="445"/>
+      <c r="V1" s="445"/>
+      <c r="W1" s="445"/>
+      <c r="X1" s="445"/>
+      <c r="Y1" s="445"/>
+      <c r="Z1" s="445"/>
+      <c r="AA1" s="445"/>
+      <c r="AB1" s="445"/>
+      <c r="AC1" s="445"/>
+      <c r="AD1" s="445"/>
+      <c r="AE1" s="445"/>
+      <c r="AF1" s="445"/>
+      <c r="AG1" s="445"/>
+      <c r="AH1" s="445"/>
+      <c r="AI1" s="445"/>
+      <c r="AJ1" s="445"/>
+      <c r="AK1" s="445"/>
+      <c r="AL1" s="445"/>
+      <c r="AM1" s="446"/>
+      <c r="AN1" s="444" t="s">
         <v>69</v>
       </c>
-      <c r="AO1" s="440"/>
-      <c r="AP1" s="440"/>
-      <c r="AQ1" s="440"/>
-      <c r="AR1" s="440"/>
-      <c r="AS1" s="440"/>
-      <c r="AT1" s="441"/>
-      <c r="AU1" s="439" t="s">
+      <c r="AO1" s="445"/>
+      <c r="AP1" s="445"/>
+      <c r="AQ1" s="445"/>
+      <c r="AR1" s="445"/>
+      <c r="AS1" s="445"/>
+      <c r="AT1" s="446"/>
+      <c r="AU1" s="444" t="s">
         <v>72</v>
       </c>
-      <c r="AV1" s="440"/>
-      <c r="AW1" s="440"/>
-      <c r="AX1" s="440"/>
-      <c r="AY1" s="440"/>
-      <c r="AZ1" s="440"/>
-      <c r="BA1" s="440"/>
-      <c r="BB1" s="440"/>
-      <c r="BC1" s="440"/>
-      <c r="BD1" s="440"/>
-      <c r="BE1" s="440"/>
-      <c r="BF1" s="440"/>
-      <c r="BG1" s="440"/>
-      <c r="BH1" s="440"/>
-      <c r="BI1" s="440"/>
-      <c r="BJ1" s="440"/>
-      <c r="BK1" s="440"/>
-      <c r="BL1" s="440"/>
-      <c r="BM1" s="440"/>
-      <c r="BN1" s="440"/>
-      <c r="BO1" s="440"/>
-      <c r="BP1" s="440"/>
-      <c r="BQ1" s="441"/>
-      <c r="BR1" s="439" t="s">
+      <c r="AV1" s="445"/>
+      <c r="AW1" s="445"/>
+      <c r="AX1" s="445"/>
+      <c r="AY1" s="445"/>
+      <c r="AZ1" s="445"/>
+      <c r="BA1" s="445"/>
+      <c r="BB1" s="445"/>
+      <c r="BC1" s="445"/>
+      <c r="BD1" s="445"/>
+      <c r="BE1" s="445"/>
+      <c r="BF1" s="445"/>
+      <c r="BG1" s="445"/>
+      <c r="BH1" s="445"/>
+      <c r="BI1" s="445"/>
+      <c r="BJ1" s="445"/>
+      <c r="BK1" s="445"/>
+      <c r="BL1" s="445"/>
+      <c r="BM1" s="445"/>
+      <c r="BN1" s="445"/>
+      <c r="BO1" s="445"/>
+      <c r="BP1" s="445"/>
+      <c r="BQ1" s="446"/>
+      <c r="BR1" s="444" t="s">
         <v>81</v>
       </c>
-      <c r="BS1" s="440"/>
-      <c r="BT1" s="440"/>
-      <c r="BU1" s="440"/>
-      <c r="BV1" s="440"/>
-      <c r="BW1" s="440"/>
-      <c r="BX1" s="440"/>
-      <c r="BY1" s="440"/>
-      <c r="BZ1" s="440"/>
-      <c r="CA1" s="440"/>
-      <c r="CB1" s="440"/>
-      <c r="CC1" s="440"/>
-      <c r="CD1" s="440"/>
-      <c r="CE1" s="440"/>
-      <c r="CF1" s="440"/>
-      <c r="CG1" s="440"/>
-      <c r="CH1" s="440"/>
-      <c r="CI1" s="440"/>
-      <c r="CJ1" s="440"/>
-      <c r="CK1" s="441"/>
-      <c r="CL1" s="439" t="s">
+      <c r="BS1" s="445"/>
+      <c r="BT1" s="445"/>
+      <c r="BU1" s="445"/>
+      <c r="BV1" s="445"/>
+      <c r="BW1" s="445"/>
+      <c r="BX1" s="445"/>
+      <c r="BY1" s="445"/>
+      <c r="BZ1" s="445"/>
+      <c r="CA1" s="445"/>
+      <c r="CB1" s="445"/>
+      <c r="CC1" s="445"/>
+      <c r="CD1" s="445"/>
+      <c r="CE1" s="445"/>
+      <c r="CF1" s="445"/>
+      <c r="CG1" s="445"/>
+      <c r="CH1" s="445"/>
+      <c r="CI1" s="445"/>
+      <c r="CJ1" s="445"/>
+      <c r="CK1" s="446"/>
+      <c r="CL1" s="444" t="s">
         <v>91</v>
       </c>
-      <c r="CM1" s="440"/>
-      <c r="CN1" s="440"/>
-      <c r="CO1" s="440"/>
-      <c r="CP1" s="440"/>
-      <c r="CQ1" s="440"/>
-      <c r="CR1" s="440"/>
-      <c r="CS1" s="440"/>
-      <c r="CT1" s="440"/>
-      <c r="CU1" s="440"/>
-      <c r="CV1" s="440"/>
-      <c r="CW1" s="440"/>
-      <c r="CX1" s="440"/>
-      <c r="CY1" s="440"/>
-      <c r="CZ1" s="440"/>
-      <c r="DA1" s="440"/>
-      <c r="DB1" s="440"/>
+      <c r="CM1" s="445"/>
+      <c r="CN1" s="445"/>
+      <c r="CO1" s="445"/>
+      <c r="CP1" s="445"/>
+      <c r="CQ1" s="445"/>
+      <c r="CR1" s="445"/>
+      <c r="CS1" s="445"/>
+      <c r="CT1" s="445"/>
+      <c r="CU1" s="445"/>
+      <c r="CV1" s="445"/>
+      <c r="CW1" s="445"/>
+      <c r="CX1" s="445"/>
+      <c r="CY1" s="445"/>
+      <c r="CZ1" s="445"/>
+      <c r="DA1" s="445"/>
+      <c r="DB1" s="445"/>
       <c r="DC1" s="60"/>
     </row>
     <row r="2" spans="1:119" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -22787,15 +22783,15 @@
       <c r="CV86" s="28">
         <v>11</v>
       </c>
-      <c r="CW86" s="437" t="s">
+      <c r="CW86" s="442" t="s">
         <v>92</v>
       </c>
-      <c r="CX86" s="437"/>
-      <c r="CY86" s="437"/>
-      <c r="CZ86" s="437"/>
-      <c r="DA86" s="437"/>
-      <c r="DB86" s="437"/>
-      <c r="DC86" s="438"/>
+      <c r="CX86" s="442"/>
+      <c r="CY86" s="442"/>
+      <c r="CZ86" s="442"/>
+      <c r="DA86" s="442"/>
+      <c r="DB86" s="442"/>
+      <c r="DC86" s="443"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -23185,118 +23181,118 @@
   <sheetData>
     <row r="1" spans="1:102" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="77"/>
-      <c r="B1" s="451" t="s">
+      <c r="B1" s="456" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="452"/>
-      <c r="D1" s="452"/>
-      <c r="E1" s="452"/>
-      <c r="F1" s="452"/>
-      <c r="G1" s="452"/>
-      <c r="H1" s="452"/>
-      <c r="I1" s="452"/>
-      <c r="J1" s="452"/>
-      <c r="K1" s="452"/>
-      <c r="L1" s="452"/>
-      <c r="M1" s="452"/>
-      <c r="N1" s="452"/>
-      <c r="O1" s="452"/>
-      <c r="P1" s="452"/>
-      <c r="Q1" s="453"/>
-      <c r="R1" s="442" t="s">
+      <c r="C1" s="457"/>
+      <c r="D1" s="457"/>
+      <c r="E1" s="457"/>
+      <c r="F1" s="457"/>
+      <c r="G1" s="457"/>
+      <c r="H1" s="457"/>
+      <c r="I1" s="457"/>
+      <c r="J1" s="457"/>
+      <c r="K1" s="457"/>
+      <c r="L1" s="457"/>
+      <c r="M1" s="457"/>
+      <c r="N1" s="457"/>
+      <c r="O1" s="457"/>
+      <c r="P1" s="457"/>
+      <c r="Q1" s="458"/>
+      <c r="R1" s="447" t="s">
         <v>122</v>
       </c>
-      <c r="S1" s="443"/>
-      <c r="T1" s="443"/>
-      <c r="U1" s="443"/>
-      <c r="V1" s="443"/>
-      <c r="W1" s="443"/>
-      <c r="X1" s="443"/>
-      <c r="Y1" s="443"/>
-      <c r="Z1" s="443"/>
-      <c r="AA1" s="443"/>
-      <c r="AB1" s="443"/>
-      <c r="AC1" s="443"/>
-      <c r="AD1" s="443"/>
-      <c r="AE1" s="443"/>
-      <c r="AF1" s="443"/>
-      <c r="AG1" s="443"/>
-      <c r="AH1" s="443"/>
-      <c r="AI1" s="443"/>
-      <c r="AJ1" s="443"/>
-      <c r="AK1" s="443"/>
-      <c r="AL1" s="444"/>
-      <c r="AM1" s="442" t="s">
+      <c r="S1" s="448"/>
+      <c r="T1" s="448"/>
+      <c r="U1" s="448"/>
+      <c r="V1" s="448"/>
+      <c r="W1" s="448"/>
+      <c r="X1" s="448"/>
+      <c r="Y1" s="448"/>
+      <c r="Z1" s="448"/>
+      <c r="AA1" s="448"/>
+      <c r="AB1" s="448"/>
+      <c r="AC1" s="448"/>
+      <c r="AD1" s="448"/>
+      <c r="AE1" s="448"/>
+      <c r="AF1" s="448"/>
+      <c r="AG1" s="448"/>
+      <c r="AH1" s="448"/>
+      <c r="AI1" s="448"/>
+      <c r="AJ1" s="448"/>
+      <c r="AK1" s="448"/>
+      <c r="AL1" s="449"/>
+      <c r="AM1" s="447" t="s">
         <v>123</v>
       </c>
-      <c r="AN1" s="443"/>
-      <c r="AO1" s="443"/>
-      <c r="AP1" s="443"/>
-      <c r="AQ1" s="443"/>
-      <c r="AR1" s="443"/>
-      <c r="AS1" s="443"/>
-      <c r="AT1" s="443"/>
-      <c r="AU1" s="443"/>
-      <c r="AV1" s="443"/>
-      <c r="AW1" s="443"/>
-      <c r="AX1" s="443"/>
-      <c r="AY1" s="443"/>
-      <c r="AZ1" s="443"/>
-      <c r="BA1" s="443"/>
-      <c r="BB1" s="443"/>
-      <c r="BC1" s="443"/>
-      <c r="BD1" s="443"/>
-      <c r="BE1" s="443"/>
-      <c r="BF1" s="443"/>
-      <c r="BG1" s="443"/>
-      <c r="BH1" s="444"/>
-      <c r="BI1" s="442" t="s">
+      <c r="AN1" s="448"/>
+      <c r="AO1" s="448"/>
+      <c r="AP1" s="448"/>
+      <c r="AQ1" s="448"/>
+      <c r="AR1" s="448"/>
+      <c r="AS1" s="448"/>
+      <c r="AT1" s="448"/>
+      <c r="AU1" s="448"/>
+      <c r="AV1" s="448"/>
+      <c r="AW1" s="448"/>
+      <c r="AX1" s="448"/>
+      <c r="AY1" s="448"/>
+      <c r="AZ1" s="448"/>
+      <c r="BA1" s="448"/>
+      <c r="BB1" s="448"/>
+      <c r="BC1" s="448"/>
+      <c r="BD1" s="448"/>
+      <c r="BE1" s="448"/>
+      <c r="BF1" s="448"/>
+      <c r="BG1" s="448"/>
+      <c r="BH1" s="449"/>
+      <c r="BI1" s="447" t="s">
         <v>124</v>
       </c>
-      <c r="BJ1" s="443"/>
-      <c r="BK1" s="443"/>
-      <c r="BL1" s="443"/>
-      <c r="BM1" s="443"/>
-      <c r="BN1" s="443"/>
-      <c r="BO1" s="443"/>
-      <c r="BP1" s="443"/>
-      <c r="BQ1" s="443"/>
-      <c r="BR1" s="443"/>
-      <c r="BS1" s="443"/>
-      <c r="BT1" s="443"/>
-      <c r="BU1" s="443"/>
-      <c r="BV1" s="443"/>
-      <c r="BW1" s="443"/>
-      <c r="BX1" s="443"/>
-      <c r="BY1" s="443"/>
-      <c r="BZ1" s="443"/>
-      <c r="CA1" s="443"/>
-      <c r="CB1" s="443"/>
-      <c r="CC1" s="443"/>
-      <c r="CD1" s="444"/>
-      <c r="CE1" s="442" t="s">
+      <c r="BJ1" s="448"/>
+      <c r="BK1" s="448"/>
+      <c r="BL1" s="448"/>
+      <c r="BM1" s="448"/>
+      <c r="BN1" s="448"/>
+      <c r="BO1" s="448"/>
+      <c r="BP1" s="448"/>
+      <c r="BQ1" s="448"/>
+      <c r="BR1" s="448"/>
+      <c r="BS1" s="448"/>
+      <c r="BT1" s="448"/>
+      <c r="BU1" s="448"/>
+      <c r="BV1" s="448"/>
+      <c r="BW1" s="448"/>
+      <c r="BX1" s="448"/>
+      <c r="BY1" s="448"/>
+      <c r="BZ1" s="448"/>
+      <c r="CA1" s="448"/>
+      <c r="CB1" s="448"/>
+      <c r="CC1" s="448"/>
+      <c r="CD1" s="449"/>
+      <c r="CE1" s="447" t="s">
         <v>125</v>
       </c>
-      <c r="CF1" s="443"/>
-      <c r="CG1" s="443"/>
-      <c r="CH1" s="443"/>
-      <c r="CI1" s="443"/>
-      <c r="CJ1" s="443"/>
-      <c r="CK1" s="443"/>
-      <c r="CL1" s="443"/>
-      <c r="CM1" s="444"/>
-      <c r="CN1" s="442" t="s">
+      <c r="CF1" s="448"/>
+      <c r="CG1" s="448"/>
+      <c r="CH1" s="448"/>
+      <c r="CI1" s="448"/>
+      <c r="CJ1" s="448"/>
+      <c r="CK1" s="448"/>
+      <c r="CL1" s="448"/>
+      <c r="CM1" s="449"/>
+      <c r="CN1" s="447" t="s">
         <v>126</v>
       </c>
-      <c r="CO1" s="443"/>
-      <c r="CP1" s="443"/>
-      <c r="CQ1" s="443"/>
-      <c r="CR1" s="443"/>
-      <c r="CS1" s="443"/>
-      <c r="CT1" s="443"/>
-      <c r="CU1" s="443"/>
-      <c r="CV1" s="443"/>
-      <c r="CW1" s="444"/>
+      <c r="CO1" s="448"/>
+      <c r="CP1" s="448"/>
+      <c r="CQ1" s="448"/>
+      <c r="CR1" s="448"/>
+      <c r="CS1" s="448"/>
+      <c r="CT1" s="448"/>
+      <c r="CU1" s="448"/>
+      <c r="CV1" s="448"/>
+      <c r="CW1" s="449"/>
       <c r="CX1" s="99"/>
     </row>
     <row r="2" spans="1:102" s="107" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24743,11 +24739,11 @@
       <c r="AH47" s="199"/>
       <c r="AL47" s="137"/>
       <c r="AM47" s="135"/>
-      <c r="AX47" s="445" t="s">
+      <c r="AX47" s="450" t="s">
         <v>121</v>
       </c>
-      <c r="AY47" s="446"/>
-      <c r="AZ47" s="447"/>
+      <c r="AY47" s="451"/>
+      <c r="AZ47" s="452"/>
       <c r="BA47" s="178"/>
       <c r="BB47" s="178"/>
       <c r="BC47" s="178"/>
@@ -25046,11 +25042,11 @@
       <c r="BH60" s="147"/>
       <c r="BI60" s="148"/>
       <c r="BL60" s="148"/>
-      <c r="BS60" s="448" t="s">
+      <c r="BS60" s="453" t="s">
         <v>121</v>
       </c>
-      <c r="BT60" s="449"/>
-      <c r="BU60" s="450"/>
+      <c r="BT60" s="454"/>
+      <c r="BU60" s="455"/>
       <c r="BV60" s="184"/>
       <c r="BW60" s="184"/>
       <c r="BX60" s="184"/>
@@ -25414,120 +25410,120 @@
   <sheetData>
     <row r="1" spans="1:104" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="77"/>
-      <c r="B1" s="451" t="s">
+      <c r="B1" s="456" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="452"/>
-      <c r="D1" s="452"/>
-      <c r="E1" s="452"/>
-      <c r="F1" s="452"/>
-      <c r="G1" s="452"/>
-      <c r="H1" s="452"/>
-      <c r="I1" s="452"/>
-      <c r="J1" s="452"/>
-      <c r="K1" s="452"/>
-      <c r="L1" s="452"/>
-      <c r="M1" s="452"/>
-      <c r="N1" s="452"/>
-      <c r="O1" s="452"/>
-      <c r="P1" s="452"/>
-      <c r="Q1" s="453"/>
-      <c r="R1" s="442" t="s">
+      <c r="C1" s="457"/>
+      <c r="D1" s="457"/>
+      <c r="E1" s="457"/>
+      <c r="F1" s="457"/>
+      <c r="G1" s="457"/>
+      <c r="H1" s="457"/>
+      <c r="I1" s="457"/>
+      <c r="J1" s="457"/>
+      <c r="K1" s="457"/>
+      <c r="L1" s="457"/>
+      <c r="M1" s="457"/>
+      <c r="N1" s="457"/>
+      <c r="O1" s="457"/>
+      <c r="P1" s="457"/>
+      <c r="Q1" s="458"/>
+      <c r="R1" s="447" t="s">
         <v>122</v>
       </c>
-      <c r="S1" s="443"/>
-      <c r="T1" s="443"/>
-      <c r="U1" s="443"/>
-      <c r="V1" s="443"/>
-      <c r="W1" s="443"/>
-      <c r="X1" s="443"/>
-      <c r="Y1" s="443"/>
-      <c r="Z1" s="443"/>
-      <c r="AA1" s="443"/>
-      <c r="AB1" s="443"/>
-      <c r="AC1" s="443"/>
-      <c r="AD1" s="443"/>
-      <c r="AE1" s="443"/>
-      <c r="AF1" s="443"/>
-      <c r="AG1" s="443"/>
-      <c r="AH1" s="443"/>
-      <c r="AI1" s="443"/>
-      <c r="AJ1" s="443"/>
-      <c r="AK1" s="443"/>
-      <c r="AL1" s="443"/>
-      <c r="AM1" s="444"/>
-      <c r="AN1" s="442" t="s">
+      <c r="S1" s="448"/>
+      <c r="T1" s="448"/>
+      <c r="U1" s="448"/>
+      <c r="V1" s="448"/>
+      <c r="W1" s="448"/>
+      <c r="X1" s="448"/>
+      <c r="Y1" s="448"/>
+      <c r="Z1" s="448"/>
+      <c r="AA1" s="448"/>
+      <c r="AB1" s="448"/>
+      <c r="AC1" s="448"/>
+      <c r="AD1" s="448"/>
+      <c r="AE1" s="448"/>
+      <c r="AF1" s="448"/>
+      <c r="AG1" s="448"/>
+      <c r="AH1" s="448"/>
+      <c r="AI1" s="448"/>
+      <c r="AJ1" s="448"/>
+      <c r="AK1" s="448"/>
+      <c r="AL1" s="448"/>
+      <c r="AM1" s="449"/>
+      <c r="AN1" s="447" t="s">
         <v>123</v>
       </c>
-      <c r="AO1" s="443"/>
-      <c r="AP1" s="443"/>
-      <c r="AQ1" s="443"/>
-      <c r="AR1" s="443"/>
-      <c r="AS1" s="443"/>
-      <c r="AT1" s="443"/>
-      <c r="AU1" s="443"/>
-      <c r="AV1" s="443"/>
-      <c r="AW1" s="443"/>
-      <c r="AX1" s="443"/>
-      <c r="AY1" s="443"/>
-      <c r="AZ1" s="443"/>
-      <c r="BA1" s="443"/>
-      <c r="BB1" s="443"/>
-      <c r="BC1" s="443"/>
-      <c r="BD1" s="443"/>
-      <c r="BE1" s="443"/>
-      <c r="BF1" s="443"/>
-      <c r="BG1" s="443"/>
-      <c r="BH1" s="443"/>
-      <c r="BI1" s="443"/>
-      <c r="BJ1" s="444"/>
-      <c r="BK1" s="442" t="s">
+      <c r="AO1" s="448"/>
+      <c r="AP1" s="448"/>
+      <c r="AQ1" s="448"/>
+      <c r="AR1" s="448"/>
+      <c r="AS1" s="448"/>
+      <c r="AT1" s="448"/>
+      <c r="AU1" s="448"/>
+      <c r="AV1" s="448"/>
+      <c r="AW1" s="448"/>
+      <c r="AX1" s="448"/>
+      <c r="AY1" s="448"/>
+      <c r="AZ1" s="448"/>
+      <c r="BA1" s="448"/>
+      <c r="BB1" s="448"/>
+      <c r="BC1" s="448"/>
+      <c r="BD1" s="448"/>
+      <c r="BE1" s="448"/>
+      <c r="BF1" s="448"/>
+      <c r="BG1" s="448"/>
+      <c r="BH1" s="448"/>
+      <c r="BI1" s="448"/>
+      <c r="BJ1" s="449"/>
+      <c r="BK1" s="447" t="s">
         <v>124</v>
       </c>
-      <c r="BL1" s="443"/>
-      <c r="BM1" s="443"/>
-      <c r="BN1" s="443"/>
-      <c r="BO1" s="443"/>
-      <c r="BP1" s="443"/>
-      <c r="BQ1" s="443"/>
-      <c r="BR1" s="443"/>
-      <c r="BS1" s="443"/>
-      <c r="BT1" s="443"/>
-      <c r="BU1" s="443"/>
-      <c r="BV1" s="443"/>
-      <c r="BW1" s="443"/>
-      <c r="BX1" s="443"/>
-      <c r="BY1" s="443"/>
-      <c r="BZ1" s="443"/>
-      <c r="CA1" s="443"/>
-      <c r="CB1" s="443"/>
-      <c r="CC1" s="443"/>
-      <c r="CD1" s="443"/>
-      <c r="CE1" s="443"/>
-      <c r="CF1" s="443"/>
-      <c r="CG1" s="444"/>
-      <c r="CH1" s="442" t="s">
+      <c r="BL1" s="448"/>
+      <c r="BM1" s="448"/>
+      <c r="BN1" s="448"/>
+      <c r="BO1" s="448"/>
+      <c r="BP1" s="448"/>
+      <c r="BQ1" s="448"/>
+      <c r="BR1" s="448"/>
+      <c r="BS1" s="448"/>
+      <c r="BT1" s="448"/>
+      <c r="BU1" s="448"/>
+      <c r="BV1" s="448"/>
+      <c r="BW1" s="448"/>
+      <c r="BX1" s="448"/>
+      <c r="BY1" s="448"/>
+      <c r="BZ1" s="448"/>
+      <c r="CA1" s="448"/>
+      <c r="CB1" s="448"/>
+      <c r="CC1" s="448"/>
+      <c r="CD1" s="448"/>
+      <c r="CE1" s="448"/>
+      <c r="CF1" s="448"/>
+      <c r="CG1" s="449"/>
+      <c r="CH1" s="447" t="s">
         <v>125</v>
       </c>
-      <c r="CI1" s="443"/>
-      <c r="CJ1" s="443"/>
-      <c r="CK1" s="443"/>
-      <c r="CL1" s="443"/>
-      <c r="CM1" s="443"/>
-      <c r="CN1" s="443"/>
-      <c r="CO1" s="443"/>
-      <c r="CP1" s="443"/>
-      <c r="CQ1" s="444"/>
-      <c r="CR1" s="454" t="s">
+      <c r="CI1" s="448"/>
+      <c r="CJ1" s="448"/>
+      <c r="CK1" s="448"/>
+      <c r="CL1" s="448"/>
+      <c r="CM1" s="448"/>
+      <c r="CN1" s="448"/>
+      <c r="CO1" s="448"/>
+      <c r="CP1" s="448"/>
+      <c r="CQ1" s="449"/>
+      <c r="CR1" s="459" t="s">
         <v>126</v>
       </c>
-      <c r="CS1" s="455"/>
-      <c r="CT1" s="455"/>
-      <c r="CU1" s="455"/>
-      <c r="CV1" s="455"/>
-      <c r="CW1" s="455"/>
-      <c r="CX1" s="455"/>
-      <c r="CY1" s="456"/>
+      <c r="CS1" s="460"/>
+      <c r="CT1" s="460"/>
+      <c r="CU1" s="460"/>
+      <c r="CV1" s="460"/>
+      <c r="CW1" s="460"/>
+      <c r="CX1" s="460"/>
+      <c r="CY1" s="461"/>
       <c r="CZ1" s="99"/>
     </row>
     <row r="2" spans="1:104" s="107" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -27336,11 +27332,11 @@
       <c r="AK47" s="284"/>
       <c r="AM47" s="283"/>
       <c r="AN47" s="280"/>
-      <c r="AY47" s="457" t="s">
+      <c r="AY47" s="462" t="s">
         <v>121</v>
       </c>
-      <c r="AZ47" s="458"/>
-      <c r="BA47" s="459"/>
+      <c r="AZ47" s="463"/>
+      <c r="BA47" s="464"/>
       <c r="BB47" s="285"/>
       <c r="BC47" s="285"/>
       <c r="BD47" s="285"/>
@@ -27733,11 +27729,11 @@
       <c r="BJ60" s="147"/>
       <c r="BK60" s="145"/>
       <c r="BN60" s="148"/>
-      <c r="BU60" s="448" t="s">
+      <c r="BU60" s="453" t="s">
         <v>121</v>
       </c>
-      <c r="BV60" s="449"/>
-      <c r="BW60" s="450"/>
+      <c r="BV60" s="454"/>
+      <c r="BW60" s="455"/>
       <c r="BX60" s="184"/>
       <c r="BY60" s="184"/>
       <c r="BZ60" s="184"/>
@@ -28212,120 +28208,120 @@
   <sheetData>
     <row r="1" spans="1:104" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="77"/>
-      <c r="B1" s="451" t="s">
+      <c r="B1" s="456" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="452"/>
-      <c r="D1" s="452"/>
-      <c r="E1" s="452"/>
-      <c r="F1" s="452"/>
-      <c r="G1" s="452"/>
-      <c r="H1" s="452"/>
-      <c r="I1" s="452"/>
-      <c r="J1" s="452"/>
-      <c r="K1" s="452"/>
-      <c r="L1" s="452"/>
-      <c r="M1" s="452"/>
-      <c r="N1" s="452"/>
-      <c r="O1" s="452"/>
-      <c r="P1" s="452"/>
-      <c r="Q1" s="453"/>
-      <c r="R1" s="442" t="s">
+      <c r="C1" s="457"/>
+      <c r="D1" s="457"/>
+      <c r="E1" s="457"/>
+      <c r="F1" s="457"/>
+      <c r="G1" s="457"/>
+      <c r="H1" s="457"/>
+      <c r="I1" s="457"/>
+      <c r="J1" s="457"/>
+      <c r="K1" s="457"/>
+      <c r="L1" s="457"/>
+      <c r="M1" s="457"/>
+      <c r="N1" s="457"/>
+      <c r="O1" s="457"/>
+      <c r="P1" s="457"/>
+      <c r="Q1" s="458"/>
+      <c r="R1" s="447" t="s">
         <v>122</v>
       </c>
-      <c r="S1" s="443"/>
-      <c r="T1" s="443"/>
-      <c r="U1" s="443"/>
-      <c r="V1" s="443"/>
-      <c r="W1" s="443"/>
-      <c r="X1" s="443"/>
-      <c r="Y1" s="443"/>
-      <c r="Z1" s="443"/>
-      <c r="AA1" s="443"/>
-      <c r="AB1" s="443"/>
-      <c r="AC1" s="443"/>
-      <c r="AD1" s="443"/>
-      <c r="AE1" s="443"/>
-      <c r="AF1" s="443"/>
-      <c r="AG1" s="443"/>
-      <c r="AH1" s="443"/>
-      <c r="AI1" s="443"/>
-      <c r="AJ1" s="443"/>
-      <c r="AK1" s="443"/>
-      <c r="AL1" s="443"/>
-      <c r="AM1" s="444"/>
-      <c r="AN1" s="442" t="s">
+      <c r="S1" s="448"/>
+      <c r="T1" s="448"/>
+      <c r="U1" s="448"/>
+      <c r="V1" s="448"/>
+      <c r="W1" s="448"/>
+      <c r="X1" s="448"/>
+      <c r="Y1" s="448"/>
+      <c r="Z1" s="448"/>
+      <c r="AA1" s="448"/>
+      <c r="AB1" s="448"/>
+      <c r="AC1" s="448"/>
+      <c r="AD1" s="448"/>
+      <c r="AE1" s="448"/>
+      <c r="AF1" s="448"/>
+      <c r="AG1" s="448"/>
+      <c r="AH1" s="448"/>
+      <c r="AI1" s="448"/>
+      <c r="AJ1" s="448"/>
+      <c r="AK1" s="448"/>
+      <c r="AL1" s="448"/>
+      <c r="AM1" s="449"/>
+      <c r="AN1" s="447" t="s">
         <v>123</v>
       </c>
-      <c r="AO1" s="443"/>
-      <c r="AP1" s="443"/>
-      <c r="AQ1" s="443"/>
-      <c r="AR1" s="443"/>
-      <c r="AS1" s="443"/>
-      <c r="AT1" s="443"/>
-      <c r="AU1" s="443"/>
-      <c r="AV1" s="443"/>
-      <c r="AW1" s="443"/>
-      <c r="AX1" s="443"/>
-      <c r="AY1" s="443"/>
-      <c r="AZ1" s="443"/>
-      <c r="BA1" s="443"/>
-      <c r="BB1" s="443"/>
-      <c r="BC1" s="443"/>
-      <c r="BD1" s="443"/>
-      <c r="BE1" s="443"/>
-      <c r="BF1" s="443"/>
-      <c r="BG1" s="443"/>
-      <c r="BH1" s="443"/>
-      <c r="BI1" s="443"/>
-      <c r="BJ1" s="444"/>
-      <c r="BK1" s="442" t="s">
+      <c r="AO1" s="448"/>
+      <c r="AP1" s="448"/>
+      <c r="AQ1" s="448"/>
+      <c r="AR1" s="448"/>
+      <c r="AS1" s="448"/>
+      <c r="AT1" s="448"/>
+      <c r="AU1" s="448"/>
+      <c r="AV1" s="448"/>
+      <c r="AW1" s="448"/>
+      <c r="AX1" s="448"/>
+      <c r="AY1" s="448"/>
+      <c r="AZ1" s="448"/>
+      <c r="BA1" s="448"/>
+      <c r="BB1" s="448"/>
+      <c r="BC1" s="448"/>
+      <c r="BD1" s="448"/>
+      <c r="BE1" s="448"/>
+      <c r="BF1" s="448"/>
+      <c r="BG1" s="448"/>
+      <c r="BH1" s="448"/>
+      <c r="BI1" s="448"/>
+      <c r="BJ1" s="449"/>
+      <c r="BK1" s="447" t="s">
         <v>124</v>
       </c>
-      <c r="BL1" s="443"/>
-      <c r="BM1" s="443"/>
-      <c r="BN1" s="443"/>
-      <c r="BO1" s="443"/>
-      <c r="BP1" s="443"/>
-      <c r="BQ1" s="443"/>
-      <c r="BR1" s="443"/>
-      <c r="BS1" s="443"/>
-      <c r="BT1" s="443"/>
-      <c r="BU1" s="443"/>
-      <c r="BV1" s="443"/>
-      <c r="BW1" s="443"/>
-      <c r="BX1" s="443"/>
-      <c r="BY1" s="443"/>
-      <c r="BZ1" s="443"/>
-      <c r="CA1" s="443"/>
-      <c r="CB1" s="443"/>
-      <c r="CC1" s="443"/>
-      <c r="CD1" s="443"/>
-      <c r="CE1" s="443"/>
-      <c r="CF1" s="443"/>
-      <c r="CG1" s="444"/>
-      <c r="CH1" s="442" t="s">
+      <c r="BL1" s="448"/>
+      <c r="BM1" s="448"/>
+      <c r="BN1" s="448"/>
+      <c r="BO1" s="448"/>
+      <c r="BP1" s="448"/>
+      <c r="BQ1" s="448"/>
+      <c r="BR1" s="448"/>
+      <c r="BS1" s="448"/>
+      <c r="BT1" s="448"/>
+      <c r="BU1" s="448"/>
+      <c r="BV1" s="448"/>
+      <c r="BW1" s="448"/>
+      <c r="BX1" s="448"/>
+      <c r="BY1" s="448"/>
+      <c r="BZ1" s="448"/>
+      <c r="CA1" s="448"/>
+      <c r="CB1" s="448"/>
+      <c r="CC1" s="448"/>
+      <c r="CD1" s="448"/>
+      <c r="CE1" s="448"/>
+      <c r="CF1" s="448"/>
+      <c r="CG1" s="449"/>
+      <c r="CH1" s="447" t="s">
         <v>125</v>
       </c>
-      <c r="CI1" s="443"/>
-      <c r="CJ1" s="443"/>
-      <c r="CK1" s="443"/>
-      <c r="CL1" s="443"/>
-      <c r="CM1" s="443"/>
-      <c r="CN1" s="443"/>
-      <c r="CO1" s="443"/>
-      <c r="CP1" s="443"/>
-      <c r="CQ1" s="444"/>
-      <c r="CR1" s="454" t="s">
+      <c r="CI1" s="448"/>
+      <c r="CJ1" s="448"/>
+      <c r="CK1" s="448"/>
+      <c r="CL1" s="448"/>
+      <c r="CM1" s="448"/>
+      <c r="CN1" s="448"/>
+      <c r="CO1" s="448"/>
+      <c r="CP1" s="448"/>
+      <c r="CQ1" s="449"/>
+      <c r="CR1" s="459" t="s">
         <v>126</v>
       </c>
-      <c r="CS1" s="455"/>
-      <c r="CT1" s="455"/>
-      <c r="CU1" s="455"/>
-      <c r="CV1" s="455"/>
-      <c r="CW1" s="455"/>
-      <c r="CX1" s="455"/>
-      <c r="CY1" s="456"/>
+      <c r="CS1" s="460"/>
+      <c r="CT1" s="460"/>
+      <c r="CU1" s="460"/>
+      <c r="CV1" s="460"/>
+      <c r="CW1" s="460"/>
+      <c r="CX1" s="460"/>
+      <c r="CY1" s="461"/>
       <c r="CZ1" s="99"/>
     </row>
     <row r="2" spans="1:104" s="107" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30913,11 +30909,11 @@
       <c r="AN47" s="280"/>
       <c r="AQ47" s="306"/>
       <c r="AV47" s="306"/>
-      <c r="AY47" s="457" t="s">
+      <c r="AY47" s="462" t="s">
         <v>121</v>
       </c>
-      <c r="AZ47" s="458"/>
-      <c r="BA47" s="459"/>
+      <c r="AZ47" s="463"/>
+      <c r="BA47" s="464"/>
       <c r="BB47" s="285"/>
       <c r="BC47" s="285"/>
       <c r="BD47" s="285"/>
@@ -31566,11 +31562,11 @@
       <c r="BK60" s="145"/>
       <c r="BN60" s="321"/>
       <c r="BS60" s="302"/>
-      <c r="BU60" s="448" t="s">
+      <c r="BU60" s="453" t="s">
         <v>121</v>
       </c>
-      <c r="BV60" s="449"/>
-      <c r="BW60" s="450"/>
+      <c r="BV60" s="454"/>
+      <c r="BW60" s="455"/>
       <c r="BX60" s="302"/>
       <c r="BY60" s="184"/>
       <c r="BZ60" s="184"/>
@@ -33507,7 +33503,7 @@
       <c r="AO33" s="385"/>
       <c r="AP33" s="385"/>
       <c r="AQ33" s="347" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="AV33" s="347"/>
       <c r="BA33" s="347"/>
@@ -34629,8 +34625,8 @@
   <dimension ref="A1:P103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34660,18 +34656,18 @@
         <v>153</v>
       </c>
       <c r="F1" s="398" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G1" s="398" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H1" s="397" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="I1" s="433"/>
     </row>
     <row r="2" spans="1:16" s="401" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="463" t="s">
+      <c r="A2" s="468" t="s">
         <v>141</v>
       </c>
       <c r="B2" s="399">
@@ -34682,26 +34678,26 @@
       </c>
     </row>
     <row r="3" spans="1:16" s="403" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="464"/>
+      <c r="A3" s="469"/>
       <c r="B3" s="402">
         <v>43671</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="406" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="464"/>
+      <c r="A4" s="469"/>
       <c r="B4" s="404">
         <v>43672</v>
       </c>
       <c r="C4" s="405" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D4" s="406" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="P4" s="407"/>
     </row>
     <row r="5" spans="1:16" s="410" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="464"/>
+      <c r="A5" s="469"/>
       <c r="B5" s="408">
         <v>43675</v>
       </c>
@@ -34709,20 +34705,20 @@
         <v>146</v>
       </c>
       <c r="D5" s="410" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E5" s="432" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F5" s="410" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="G5" s="410" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="410" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="464"/>
+      <c r="A6" s="469"/>
       <c r="B6" s="408">
         <v>43676</v>
       </c>
@@ -34733,75 +34729,75 @@
         <v>148</v>
       </c>
       <c r="F6" s="410" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G6" s="410" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="410" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="464"/>
+      <c r="A7" s="469"/>
       <c r="B7" s="408">
         <v>43677</v>
       </c>
       <c r="C7" s="409" t="s">
+        <v>191</v>
+      </c>
+      <c r="D7" s="409" t="s">
+        <v>199</v>
+      </c>
+      <c r="E7" s="409" t="s">
+        <v>192</v>
+      </c>
+      <c r="F7" s="410" t="s">
+        <v>194</v>
+      </c>
+      <c r="G7" s="410" t="s">
+        <v>194</v>
+      </c>
+      <c r="H7" s="434" t="s">
         <v>196</v>
       </c>
-      <c r="D7" s="409" t="s">
-        <v>204</v>
-      </c>
-      <c r="E7" s="409" t="s">
-        <v>197</v>
-      </c>
-      <c r="F7" s="410" t="s">
-        <v>199</v>
-      </c>
-      <c r="G7" s="410" t="s">
-        <v>199</v>
-      </c>
-      <c r="H7" s="434" t="s">
-        <v>201</v>
-      </c>
     </row>
     <row r="8" spans="1:16" s="403" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="464"/>
+      <c r="A8" s="469"/>
       <c r="B8" s="402">
         <v>43678</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="410" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="464"/>
+      <c r="A9" s="469"/>
       <c r="B9" s="408">
         <v>43679</v>
       </c>
       <c r="C9" s="409" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D9" s="409" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E9" s="409" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F9" s="432"/>
     </row>
     <row r="10" spans="1:16" s="406" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="464"/>
+      <c r="A10" s="469"/>
       <c r="B10" s="404">
         <v>43682</v>
       </c>
       <c r="C10" s="405" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D10" s="405" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E10" s="406" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="406" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="464"/>
+      <c r="A11" s="469"/>
       <c r="B11" s="404">
         <v>43683</v>
       </c>
@@ -34812,14 +34808,14 @@
         <v>151</v>
       </c>
       <c r="F11" s="406" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="G11" s="406" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="406" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="464"/>
+      <c r="A12" s="469"/>
       <c r="B12" s="404">
         <v>43684</v>
       </c>
@@ -34830,41 +34826,41 @@
         <v>151</v>
       </c>
       <c r="H12" s="435" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="403" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="464"/>
+      <c r="A13" s="469"/>
       <c r="B13" s="402">
         <v>43685</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="406" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="464"/>
+      <c r="A14" s="469"/>
       <c r="B14" s="404">
         <v>43686</v>
       </c>
       <c r="C14" s="406" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D14" s="435" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="410" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="464"/>
+      <c r="A15" s="469"/>
       <c r="B15" s="408">
         <v>43689</v>
       </c>
       <c r="C15" s="410" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E15" s="410" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="410" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="464"/>
+      <c r="A16" s="469"/>
       <c r="B16" s="408">
         <v>43690</v>
       </c>
@@ -34873,7 +34869,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" s="410" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="464"/>
+      <c r="A17" s="469"/>
       <c r="B17" s="408">
         <v>43691</v>
       </c>
@@ -34882,22 +34878,22 @@
       </c>
     </row>
     <row r="18" spans="1:8" s="403" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="464"/>
+      <c r="A18" s="469"/>
       <c r="B18" s="402">
         <v>43692</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="412" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="465"/>
+      <c r="A19" s="470"/>
       <c r="B19" s="411">
         <v>43693</v>
       </c>
       <c r="C19" s="410" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="401" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="460" t="s">
+      <c r="A20" s="465" t="s">
         <v>142</v>
       </c>
       <c r="B20" s="413">
@@ -34910,11 +34906,11 @@
         <v>156</v>
       </c>
       <c r="E20" s="401" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="406" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="461"/>
+      <c r="A21" s="466"/>
       <c r="B21" s="415">
         <v>43697</v>
       </c>
@@ -34925,24 +34921,24 @@
         <v>157</v>
       </c>
       <c r="E21" s="406" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="H21" s="406" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="406" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="461"/>
+      <c r="A22" s="466"/>
       <c r="B22" s="415">
         <v>43698</v>
       </c>
       <c r="D22" s="417"/>
       <c r="E22" s="406" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="403" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="461"/>
+      <c r="A23" s="466"/>
       <c r="B23" s="418">
         <v>43699</v>
       </c>
@@ -34950,14 +34946,14 @@
         <v>162</v>
       </c>
       <c r="D23" s="436" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E23" s="403" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="406" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="461"/>
+      <c r="A24" s="466"/>
       <c r="B24" s="415">
         <v>43700</v>
       </c>
@@ -34966,7 +34962,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" s="410" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="461"/>
+      <c r="A25" s="466"/>
       <c r="B25" s="419">
         <v>43703</v>
       </c>
@@ -34977,11 +34973,11 @@
         <v>159</v>
       </c>
       <c r="E25" s="410" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="410" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="461"/>
+      <c r="A26" s="466"/>
       <c r="B26" s="419">
         <v>43704</v>
       </c>
@@ -34989,49 +34985,49 @@
         <v>160</v>
       </c>
       <c r="D26" s="409" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E26" s="410" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="410" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="461"/>
+      <c r="A27" s="466"/>
       <c r="B27" s="419">
         <v>43705</v>
       </c>
       <c r="D27" s="409"/>
       <c r="E27" s="410" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="H27" s="410" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="403" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="461"/>
+      <c r="A28" s="466"/>
       <c r="B28" s="418">
         <v>43706</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="410" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="461"/>
+      <c r="A29" s="466"/>
       <c r="B29" s="419">
         <v>43707</v>
       </c>
       <c r="C29" s="409"/>
       <c r="E29" s="410" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F29" s="410" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G29" s="410" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="406" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="461"/>
+      <c r="A30" s="466"/>
       <c r="B30" s="415">
         <v>43710</v>
       </c>
@@ -35040,7 +35036,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" s="406" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="461"/>
+      <c r="A31" s="466"/>
       <c r="B31" s="415">
         <v>43711</v>
       </c>
@@ -35049,7 +35045,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" s="406" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="461"/>
+      <c r="A32" s="466"/>
       <c r="B32" s="415">
         <v>43712</v>
       </c>
@@ -35057,26 +35053,26 @@
         <v>164</v>
       </c>
       <c r="E32" s="406" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="403" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="461"/>
+      <c r="A33" s="466"/>
       <c r="B33" s="418">
         <v>43713</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="406" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="461"/>
+      <c r="A34" s="466"/>
       <c r="B34" s="415">
         <v>43714</v>
       </c>
       <c r="E34" s="406" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="410" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="461"/>
+      <c r="A35" s="466"/>
       <c r="B35" s="419">
         <v>43717</v>
       </c>
@@ -35085,7 +35081,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" s="410" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="461"/>
+      <c r="A36" s="466"/>
       <c r="B36" s="419">
         <v>43718</v>
       </c>
@@ -35094,7 +35090,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" s="410" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="461"/>
+      <c r="A37" s="466"/>
       <c r="B37" s="419">
         <v>43719</v>
       </c>
@@ -35103,13 +35099,13 @@
       </c>
     </row>
     <row r="38" spans="1:5" s="403" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="461"/>
+      <c r="A38" s="466"/>
       <c r="B38" s="418">
         <v>43720</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="410" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="461"/>
+      <c r="A39" s="466"/>
       <c r="B39" s="419">
         <v>43721</v>
       </c>
@@ -35118,7 +35114,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" s="406" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="461"/>
+      <c r="A40" s="466"/>
       <c r="B40" s="415">
         <v>43724</v>
       </c>
@@ -35127,7 +35123,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" s="406" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="461"/>
+      <c r="A41" s="466"/>
       <c r="B41" s="415">
         <v>43725</v>
       </c>
@@ -35136,7 +35132,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" s="406" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="461"/>
+      <c r="A42" s="466"/>
       <c r="B42" s="415">
         <v>43726</v>
       </c>
@@ -35145,126 +35141,120 @@
       </c>
     </row>
     <row r="43" spans="1:5" s="427" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="462"/>
-      <c r="B43" s="472">
+      <c r="A43" s="467"/>
+      <c r="B43" s="440">
         <v>43727</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="429" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="466" t="s">
+    <row r="44" spans="1:5" s="429" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A44" s="471" t="s">
         <v>143</v>
       </c>
-      <c r="B44" s="473">
+      <c r="B44" s="441">
         <v>43728</v>
       </c>
       <c r="C44" s="417" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" s="471" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="467"/>
-      <c r="B45" s="469">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="439" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="472"/>
+      <c r="B45" s="437">
         <v>43731</v>
       </c>
-      <c r="C45" s="470" t="s">
-        <v>172</v>
-      </c>
-      <c r="D45" s="471" t="s">
-        <v>167</v>
+      <c r="C45" s="438" t="s">
+        <v>218</v>
+      </c>
+      <c r="D45" s="438" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="410" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="467"/>
+      <c r="A46" s="472"/>
       <c r="B46" s="423">
         <v>43732</v>
       </c>
-      <c r="C46" s="410" t="s">
-        <v>165</v>
-      </c>
       <c r="D46" s="410" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" s="410" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="467"/>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="410" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="472"/>
       <c r="B47" s="423">
         <v>43733</v>
       </c>
       <c r="C47" s="409" t="s">
-        <v>166</v>
-      </c>
-      <c r="D47" s="410" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="403" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="467"/>
+      <c r="A48" s="472"/>
       <c r="B48" s="424">
         <v>43734</v>
       </c>
     </row>
     <row r="49" spans="1:3" s="410" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A49" s="467"/>
+      <c r="A49" s="472"/>
       <c r="B49" s="423">
         <v>43735</v>
       </c>
       <c r="C49" s="409" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="50" spans="1:3" s="406" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="467"/>
+      <c r="A50" s="472"/>
       <c r="B50" s="425">
         <v>43738</v>
       </c>
       <c r="C50" s="405" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="51" spans="1:3" s="406" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="467"/>
+      <c r="A51" s="472"/>
       <c r="B51" s="425">
         <v>43739</v>
       </c>
       <c r="C51" s="405" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="52" spans="1:3" s="406" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="467"/>
+      <c r="A52" s="472"/>
       <c r="B52" s="425">
         <v>43740</v>
       </c>
       <c r="C52" s="406" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="53" spans="1:3" s="403" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="467"/>
+      <c r="A53" s="472"/>
       <c r="B53" s="424">
         <v>43741</v>
       </c>
     </row>
     <row r="54" spans="1:3" s="406" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="467"/>
+      <c r="A54" s="472"/>
       <c r="B54" s="425">
         <v>43742</v>
       </c>
       <c r="C54" s="405" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="55" spans="1:3" s="410" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="467"/>
+      <c r="A55" s="472"/>
       <c r="B55" s="423">
         <v>43745</v>
       </c>
       <c r="C55" s="410" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="56" spans="1:3" s="410" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="467"/>
+      <c r="A56" s="472"/>
       <c r="B56" s="423">
         <v>43746</v>
       </c>
@@ -35273,7 +35263,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" s="410" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="467"/>
+      <c r="A57" s="472"/>
       <c r="B57" s="423">
         <v>43747</v>
       </c>
@@ -35282,13 +35272,13 @@
       </c>
     </row>
     <row r="58" spans="1:3" s="403" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="467"/>
+      <c r="A58" s="472"/>
       <c r="B58" s="424">
         <v>43748</v>
       </c>
     </row>
     <row r="59" spans="1:3" s="410" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="467"/>
+      <c r="A59" s="472"/>
       <c r="B59" s="423">
         <v>43749</v>
       </c>
@@ -35297,7 +35287,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" s="406" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="467"/>
+      <c r="A60" s="472"/>
       <c r="B60" s="425">
         <v>43754</v>
       </c>
@@ -35306,13 +35296,13 @@
       </c>
     </row>
     <row r="61" spans="1:3" s="403" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="467"/>
+      <c r="A61" s="472"/>
       <c r="B61" s="424">
         <v>43755</v>
       </c>
     </row>
     <row r="62" spans="1:3" s="406" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="467"/>
+      <c r="A62" s="472"/>
       <c r="B62" s="425">
         <v>43756</v>
       </c>
@@ -35321,7 +35311,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" s="410" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="467"/>
+      <c r="A63" s="472"/>
       <c r="B63" s="423">
         <v>43759</v>
       </c>
@@ -35330,7 +35320,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" s="410" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="467"/>
+      <c r="A64" s="472"/>
       <c r="B64" s="423">
         <v>43760</v>
       </c>
@@ -35339,7 +35329,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" s="410" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="467"/>
+      <c r="A65" s="472"/>
       <c r="B65" s="423">
         <v>43761</v>
       </c>
@@ -35348,114 +35338,114 @@
       </c>
     </row>
     <row r="66" spans="1:4" s="427" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="468"/>
+      <c r="A66" s="473"/>
       <c r="B66" s="426">
         <v>43762</v>
       </c>
     </row>
     <row r="67" spans="1:4" s="422" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A67" s="466" t="s">
+      <c r="A67" s="471" t="s">
         <v>144</v>
       </c>
       <c r="B67" s="420">
         <v>43763</v>
       </c>
       <c r="C67" s="421" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="68" spans="1:4" s="406" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="467"/>
+      <c r="A68" s="472"/>
       <c r="B68" s="425">
         <v>43766</v>
       </c>
       <c r="C68" s="406" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D68" s="406" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="69" spans="1:4" s="406" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="467"/>
+      <c r="A69" s="472"/>
       <c r="B69" s="425">
         <v>43767</v>
       </c>
       <c r="C69" s="406" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D69" s="406" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="70" spans="1:4" s="406" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="467"/>
+      <c r="A70" s="472"/>
       <c r="B70" s="425">
         <v>43768</v>
       </c>
       <c r="C70" s="405" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D70" s="406" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="71" spans="1:4" s="403" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="467"/>
+      <c r="A71" s="472"/>
       <c r="B71" s="424">
         <v>43769</v>
       </c>
     </row>
     <row r="72" spans="1:4" s="406" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="467"/>
+      <c r="A72" s="472"/>
       <c r="B72" s="425">
         <v>43770</v>
       </c>
       <c r="C72" s="406" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="73" spans="1:4" s="410" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="467"/>
+      <c r="A73" s="472"/>
       <c r="B73" s="423">
         <v>43773</v>
       </c>
       <c r="C73" s="410" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D73" s="410" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="74" spans="1:4" s="410" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="467"/>
+      <c r="A74" s="472"/>
       <c r="B74" s="423">
         <v>43774</v>
       </c>
       <c r="C74" s="410" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D74" s="410" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="75" spans="1:4" s="410" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="467"/>
+      <c r="A75" s="472"/>
       <c r="B75" s="423">
         <v>43775</v>
       </c>
       <c r="C75" s="410" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="76" spans="1:4" s="403" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="467"/>
+      <c r="A76" s="472"/>
       <c r="B76" s="424">
         <v>43776</v>
       </c>
     </row>
     <row r="77" spans="1:4" s="410" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="467"/>
+      <c r="A77" s="472"/>
       <c r="B77" s="423">
         <v>43777</v>
       </c>
@@ -35464,7 +35454,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" s="406" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="467"/>
+      <c r="A78" s="472"/>
       <c r="B78" s="425">
         <v>43780</v>
       </c>
@@ -35473,7 +35463,7 @@
       </c>
     </row>
     <row r="79" spans="1:4" s="406" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="467"/>
+      <c r="A79" s="472"/>
       <c r="B79" s="425">
         <v>43781</v>
       </c>
@@ -35482,7 +35472,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" s="406" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="467"/>
+      <c r="A80" s="472"/>
       <c r="B80" s="425">
         <v>43782</v>
       </c>
@@ -35491,13 +35481,13 @@
       </c>
     </row>
     <row r="81" spans="1:3" s="403" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="467"/>
+      <c r="A81" s="472"/>
       <c r="B81" s="424">
         <v>43783</v>
       </c>
     </row>
     <row r="82" spans="1:3" s="410" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="467"/>
+      <c r="A82" s="472"/>
       <c r="B82" s="423">
         <v>43787</v>
       </c>
@@ -35506,7 +35496,7 @@
       </c>
     </row>
     <row r="83" spans="1:3" s="410" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="467"/>
+      <c r="A83" s="472"/>
       <c r="B83" s="423">
         <v>43788</v>
       </c>
@@ -35515,13 +35505,13 @@
       </c>
     </row>
     <row r="84" spans="1:3" s="403" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="467"/>
+      <c r="A84" s="472"/>
       <c r="B84" s="424">
         <v>43790</v>
       </c>
     </row>
     <row r="85" spans="1:3" s="410" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="467"/>
+      <c r="A85" s="472"/>
       <c r="B85" s="423">
         <v>43791</v>
       </c>
@@ -35530,7 +35520,7 @@
       </c>
     </row>
     <row r="86" spans="1:3" s="406" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="467"/>
+      <c r="A86" s="472"/>
       <c r="B86" s="425">
         <v>43794</v>
       </c>
@@ -35539,7 +35529,7 @@
       </c>
     </row>
     <row r="87" spans="1:3" s="406" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="467"/>
+      <c r="A87" s="472"/>
       <c r="B87" s="425">
         <v>43795</v>
       </c>
@@ -35548,7 +35538,7 @@
       </c>
     </row>
     <row r="88" spans="1:3" s="406" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="467"/>
+      <c r="A88" s="472"/>
       <c r="B88" s="425">
         <v>43796</v>
       </c>
@@ -35557,57 +35547,57 @@
       </c>
     </row>
     <row r="89" spans="1:3" s="427" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="468"/>
+      <c r="A89" s="473"/>
       <c r="B89" s="426">
         <v>43797</v>
       </c>
     </row>
     <row r="90" spans="1:3" s="401" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="460" t="s">
+      <c r="A90" s="465" t="s">
         <v>145</v>
       </c>
       <c r="B90" s="428">
         <v>43798</v>
       </c>
       <c r="C90" s="400" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="91" spans="1:3" s="410" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="461"/>
+      <c r="A91" s="466"/>
       <c r="B91" s="423">
         <v>43801</v>
       </c>
       <c r="C91" s="410" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="92" spans="1:3" s="410" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="461"/>
+      <c r="A92" s="466"/>
       <c r="B92" s="423">
         <v>43802</v>
       </c>
       <c r="C92" s="410" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="93" spans="1:3" s="410" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="461"/>
+      <c r="A93" s="466"/>
       <c r="B93" s="423">
         <v>43803</v>
       </c>
       <c r="C93" s="410" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="94" spans="1:3" s="403" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="461"/>
+      <c r="A94" s="466"/>
       <c r="B94" s="424">
         <v>43804</v>
       </c>
     </row>
     <row r="95" spans="1:3" s="410" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="461"/>
+      <c r="A95" s="466"/>
       <c r="B95" s="423">
         <v>43805</v>
       </c>
@@ -35616,7 +35606,7 @@
       </c>
     </row>
     <row r="96" spans="1:3" s="406" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="461"/>
+      <c r="A96" s="466"/>
       <c r="B96" s="425">
         <v>43808</v>
       </c>
@@ -35625,7 +35615,7 @@
       </c>
     </row>
     <row r="97" spans="1:3" s="406" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="461"/>
+      <c r="A97" s="466"/>
       <c r="B97" s="425">
         <v>43809</v>
       </c>
@@ -35634,7 +35624,7 @@
       </c>
     </row>
     <row r="98" spans="1:3" s="406" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="461"/>
+      <c r="A98" s="466"/>
       <c r="B98" s="425">
         <v>43810</v>
       </c>
@@ -35643,7 +35633,7 @@
       </c>
     </row>
     <row r="99" spans="1:3" s="427" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="462"/>
+      <c r="A99" s="467"/>
       <c r="B99" s="426">
         <v>43811</v>
       </c>

--- a/planejamento/cronograma-v3.xlsx
+++ b/planejamento/cronograma-v3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\senai-dev-2s2019\planejamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34C1239-FCBA-4EB2-8558-0B0A97771D0D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E1E011-0D05-4DAD-BEC4-0D4FF1AD6A49}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1452,11 +1452,6 @@
     <t>ex.: Livros</t>
   </si>
   <si>
-    <t>Interfaces
-Presenças
-CORS</t>
-  </si>
-  <si>
     <t>Gufos - DOM - Arrays, Funções, Map, Filter, Reduce</t>
   </si>
   <si>
@@ -1668,9 +1663,6 @@
     <t>Ex.: AutoPecas (Trocar AAPM)</t>
   </si>
   <si>
-    <t>Ex.: AAPM</t>
-  </si>
-  <si>
     <t>24|9</t>
   </si>
   <si>
@@ -1686,6 +1678,13 @@
   </si>
   <si>
     <t>exercícios - livros</t>
+  </si>
+  <si>
+    <t>Interfaces
+Presenças</t>
+  </si>
+  <si>
+    <t>Ex.: AutoPecas</t>
   </si>
 </sst>
 </file>
@@ -33503,7 +33502,7 @@
       <c r="AO33" s="385"/>
       <c r="AP33" s="385"/>
       <c r="AQ33" s="347" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AV33" s="347"/>
       <c r="BA33" s="347"/>
@@ -34625,8 +34624,8 @@
   <dimension ref="A1:P103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D46" sqref="D46"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34656,13 +34655,13 @@
         <v>153</v>
       </c>
       <c r="F1" s="398" t="s">
+        <v>187</v>
+      </c>
+      <c r="G1" s="398" t="s">
         <v>188</v>
       </c>
-      <c r="G1" s="398" t="s">
-        <v>189</v>
-      </c>
       <c r="H1" s="397" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I1" s="433"/>
     </row>
@@ -34689,10 +34688,10 @@
         <v>43672</v>
       </c>
       <c r="C4" s="405" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D4" s="406" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="P4" s="407"/>
     </row>
@@ -34705,16 +34704,16 @@
         <v>146</v>
       </c>
       <c r="D5" s="410" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E5" s="432" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F5" s="410" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G5" s="410" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="410" customFormat="1" x14ac:dyDescent="0.25">
@@ -34729,10 +34728,10 @@
         <v>148</v>
       </c>
       <c r="F6" s="410" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G6" s="410" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="410" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -34741,22 +34740,22 @@
         <v>43677</v>
       </c>
       <c r="C7" s="409" t="s">
+        <v>190</v>
+      </c>
+      <c r="D7" s="409" t="s">
+        <v>198</v>
+      </c>
+      <c r="E7" s="409" t="s">
         <v>191</v>
       </c>
-      <c r="D7" s="409" t="s">
-        <v>199</v>
-      </c>
-      <c r="E7" s="409" t="s">
-        <v>192</v>
-      </c>
       <c r="F7" s="410" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G7" s="410" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H7" s="434" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="403" customFormat="1" x14ac:dyDescent="0.25">
@@ -34771,13 +34770,13 @@
         <v>43679</v>
       </c>
       <c r="C9" s="409" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D9" s="409" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E9" s="409" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F9" s="432"/>
     </row>
@@ -34787,13 +34786,13 @@
         <v>43682</v>
       </c>
       <c r="C10" s="405" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D10" s="405" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E10" s="406" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="406" customFormat="1" x14ac:dyDescent="0.25">
@@ -34808,10 +34807,10 @@
         <v>151</v>
       </c>
       <c r="F11" s="406" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G11" s="406" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="406" customFormat="1" x14ac:dyDescent="0.25">
@@ -34826,7 +34825,7 @@
         <v>151</v>
       </c>
       <c r="H12" s="435" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="403" customFormat="1" x14ac:dyDescent="0.25">
@@ -34841,10 +34840,10 @@
         <v>43686</v>
       </c>
       <c r="C14" s="406" t="s">
+        <v>165</v>
+      </c>
+      <c r="D14" s="435" t="s">
         <v>166</v>
-      </c>
-      <c r="D14" s="435" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="410" customFormat="1" x14ac:dyDescent="0.25">
@@ -34853,10 +34852,10 @@
         <v>43689</v>
       </c>
       <c r="C15" s="410" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E15" s="410" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="410" customFormat="1" x14ac:dyDescent="0.25">
@@ -34889,7 +34888,7 @@
         <v>43693</v>
       </c>
       <c r="C19" s="410" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="401" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -34906,7 +34905,7 @@
         <v>156</v>
       </c>
       <c r="E20" s="401" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="406" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -34921,10 +34920,10 @@
         <v>157</v>
       </c>
       <c r="E21" s="406" t="s">
+        <v>207</v>
+      </c>
+      <c r="H21" s="406" t="s">
         <v>208</v>
-      </c>
-      <c r="H21" s="406" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="406" customFormat="1" x14ac:dyDescent="0.25">
@@ -34934,7 +34933,7 @@
       </c>
       <c r="D22" s="417"/>
       <c r="E22" s="406" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="403" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -34946,10 +34945,10 @@
         <v>162</v>
       </c>
       <c r="D23" s="436" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E23" s="403" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="406" customFormat="1" x14ac:dyDescent="0.25">
@@ -34973,7 +34972,7 @@
         <v>159</v>
       </c>
       <c r="E25" s="410" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="410" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -34985,10 +34984,10 @@
         <v>160</v>
       </c>
       <c r="D26" s="409" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E26" s="410" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="410" customFormat="1" x14ac:dyDescent="0.25">
@@ -34996,12 +34995,11 @@
       <c r="B27" s="419">
         <v>43705</v>
       </c>
-      <c r="D27" s="409"/>
-      <c r="E27" s="410" t="s">
-        <v>213</v>
+      <c r="D27" s="409" t="s">
+        <v>212</v>
       </c>
       <c r="H27" s="410" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="403" customFormat="1" x14ac:dyDescent="0.25">
@@ -35016,14 +35014,14 @@
         <v>43707</v>
       </c>
       <c r="C29" s="409"/>
-      <c r="E29" s="410" t="s">
-        <v>215</v>
+      <c r="D29" s="410" t="s">
+        <v>212</v>
       </c>
       <c r="F29" s="410" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G29" s="410" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="406" customFormat="1" x14ac:dyDescent="0.25">
@@ -35044,16 +35042,16 @@
         <v>155</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="406" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" s="406" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="466"/>
       <c r="B32" s="415">
         <v>43712</v>
       </c>
       <c r="D32" s="405" t="s">
-        <v>164</v>
+        <v>220</v>
       </c>
       <c r="E32" s="406" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="403" customFormat="1" x14ac:dyDescent="0.25">
@@ -35068,7 +35066,7 @@
         <v>43714</v>
       </c>
       <c r="E34" s="406" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="410" customFormat="1" x14ac:dyDescent="0.25">
@@ -35154,7 +35152,7 @@
         <v>43728</v>
       </c>
       <c r="C44" s="417" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="439" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -35163,10 +35161,10 @@
         <v>43731</v>
       </c>
       <c r="C45" s="438" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D45" s="438" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="410" customFormat="1" x14ac:dyDescent="0.25">
@@ -35175,7 +35173,7 @@
         <v>43732</v>
       </c>
       <c r="D46" s="410" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="410" customFormat="1" x14ac:dyDescent="0.25">
@@ -35184,7 +35182,7 @@
         <v>43733</v>
       </c>
       <c r="C47" s="409" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="403" customFormat="1" x14ac:dyDescent="0.25">
@@ -35199,7 +35197,7 @@
         <v>43735</v>
       </c>
       <c r="C49" s="409" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="50" spans="1:3" s="406" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -35208,7 +35206,7 @@
         <v>43738</v>
       </c>
       <c r="C50" s="405" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="51" spans="1:3" s="406" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -35217,7 +35215,7 @@
         <v>43739</v>
       </c>
       <c r="C51" s="405" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="52" spans="1:3" s="406" customFormat="1" x14ac:dyDescent="0.25">
@@ -35226,7 +35224,7 @@
         <v>43740</v>
       </c>
       <c r="C52" s="406" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="53" spans="1:3" s="403" customFormat="1" x14ac:dyDescent="0.25">
@@ -35241,7 +35239,7 @@
         <v>43742</v>
       </c>
       <c r="C54" s="405" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="55" spans="1:3" s="410" customFormat="1" x14ac:dyDescent="0.25">
@@ -35250,7 +35248,7 @@
         <v>43745</v>
       </c>
       <c r="C55" s="410" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="56" spans="1:3" s="410" customFormat="1" x14ac:dyDescent="0.25">
@@ -35351,7 +35349,7 @@
         <v>43763</v>
       </c>
       <c r="C67" s="421" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="68" spans="1:4" s="406" customFormat="1" x14ac:dyDescent="0.25">
@@ -35360,10 +35358,10 @@
         <v>43766</v>
       </c>
       <c r="C68" s="406" t="s">
+        <v>168</v>
+      </c>
+      <c r="D68" s="406" t="s">
         <v>169</v>
-      </c>
-      <c r="D68" s="406" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="69" spans="1:4" s="406" customFormat="1" x14ac:dyDescent="0.25">
@@ -35372,10 +35370,10 @@
         <v>43767</v>
       </c>
       <c r="C69" s="406" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D69" s="406" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="70" spans="1:4" s="406" customFormat="1" x14ac:dyDescent="0.25">
@@ -35384,10 +35382,10 @@
         <v>43768</v>
       </c>
       <c r="C70" s="405" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D70" s="406" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="71" spans="1:4" s="403" customFormat="1" x14ac:dyDescent="0.25">
@@ -35402,7 +35400,7 @@
         <v>43770</v>
       </c>
       <c r="C72" s="406" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="73" spans="1:4" s="410" customFormat="1" x14ac:dyDescent="0.25">
@@ -35411,10 +35409,10 @@
         <v>43773</v>
       </c>
       <c r="C73" s="410" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D73" s="410" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="74" spans="1:4" s="410" customFormat="1" x14ac:dyDescent="0.25">
@@ -35423,10 +35421,10 @@
         <v>43774</v>
       </c>
       <c r="C74" s="410" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D74" s="410" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="75" spans="1:4" s="410" customFormat="1" x14ac:dyDescent="0.25">
@@ -35435,7 +35433,7 @@
         <v>43775</v>
       </c>
       <c r="C75" s="410" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="76" spans="1:4" s="403" customFormat="1" x14ac:dyDescent="0.25">
@@ -35560,7 +35558,7 @@
         <v>43798</v>
       </c>
       <c r="C90" s="400" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="91" spans="1:3" s="410" customFormat="1" x14ac:dyDescent="0.25">
@@ -35569,7 +35567,7 @@
         <v>43801</v>
       </c>
       <c r="C91" s="410" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="92" spans="1:3" s="410" customFormat="1" x14ac:dyDescent="0.25">
@@ -35578,7 +35576,7 @@
         <v>43802</v>
       </c>
       <c r="C92" s="410" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="93" spans="1:3" s="410" customFormat="1" x14ac:dyDescent="0.25">
@@ -35587,7 +35585,7 @@
         <v>43803</v>
       </c>
       <c r="C93" s="410" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="94" spans="1:3" s="403" customFormat="1" x14ac:dyDescent="0.25">

--- a/planejamento/cronograma-v3.xlsx
+++ b/planejamento/cronograma-v3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\senai-dev-2s2019\planejamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E1E011-0D05-4DAD-BEC4-0D4FF1AD6A49}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28AD0301-BB12-4D5B-A1BA-66FA7CE82399}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="220">
   <si>
     <t>3. Desenvolver interfaces web utilizando frameworks</t>
   </si>
@@ -1452,9 +1452,6 @@
     <t>ex.: Livros</t>
   </si>
   <si>
-    <t>Gufos - DOM - Arrays, Funções, Map, Filter, Reduce</t>
-  </si>
-  <si>
     <t>Desafio Hroads</t>
   </si>
   <si>
@@ -1666,25 +1663,23 @@
     <t>24|9</t>
   </si>
   <si>
-    <t>categorias.html - cadastrar</t>
-  </si>
-  <si>
-    <t>Apresenação JavaScript
-Início - gufos.js
-categorias.html (DOM, Id, Class, Criar Elementos) - XMLHttpRequest, Fetch</t>
-  </si>
-  <si>
-    <t>exercícios</t>
-  </si>
-  <si>
-    <t>exercícios - livros</t>
-  </si>
-  <si>
     <t>Interfaces
 Presenças</t>
   </si>
   <si>
     <t>Ex.: AutoPecas</t>
+  </si>
+  <si>
+    <t>FETCH - GET</t>
+  </si>
+  <si>
+    <t>Arrays - Map, Filter, Reduce</t>
+  </si>
+  <si>
+    <t>Apresenação JavaScript
+Início - gufos.js
+(DOM, Id, Class, Criar Elementos)
+XMLHttpRequest - POST</t>
   </si>
 </sst>
 </file>
@@ -33502,7 +33497,7 @@
       <c r="AO33" s="385"/>
       <c r="AP33" s="385"/>
       <c r="AQ33" s="347" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AV33" s="347"/>
       <c r="BA33" s="347"/>
@@ -34624,8 +34619,8 @@
   <dimension ref="A1:P103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34655,13 +34650,13 @@
         <v>153</v>
       </c>
       <c r="F1" s="398" t="s">
+        <v>186</v>
+      </c>
+      <c r="G1" s="398" t="s">
         <v>187</v>
       </c>
-      <c r="G1" s="398" t="s">
-        <v>188</v>
-      </c>
       <c r="H1" s="397" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I1" s="433"/>
     </row>
@@ -34688,10 +34683,10 @@
         <v>43672</v>
       </c>
       <c r="C4" s="405" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D4" s="406" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P4" s="407"/>
     </row>
@@ -34704,16 +34699,16 @@
         <v>146</v>
       </c>
       <c r="D5" s="410" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E5" s="432" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F5" s="410" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G5" s="410" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="410" customFormat="1" x14ac:dyDescent="0.25">
@@ -34728,10 +34723,10 @@
         <v>148</v>
       </c>
       <c r="F6" s="410" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G6" s="410" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="410" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -34740,22 +34735,22 @@
         <v>43677</v>
       </c>
       <c r="C7" s="409" t="s">
+        <v>189</v>
+      </c>
+      <c r="D7" s="409" t="s">
+        <v>197</v>
+      </c>
+      <c r="E7" s="409" t="s">
         <v>190</v>
       </c>
-      <c r="D7" s="409" t="s">
-        <v>198</v>
-      </c>
-      <c r="E7" s="409" t="s">
-        <v>191</v>
-      </c>
       <c r="F7" s="410" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G7" s="410" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H7" s="434" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="403" customFormat="1" x14ac:dyDescent="0.25">
@@ -34770,13 +34765,13 @@
         <v>43679</v>
       </c>
       <c r="C9" s="409" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D9" s="409" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E9" s="409" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F9" s="432"/>
     </row>
@@ -34786,13 +34781,13 @@
         <v>43682</v>
       </c>
       <c r="C10" s="405" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D10" s="405" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E10" s="406" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="406" customFormat="1" x14ac:dyDescent="0.25">
@@ -34807,10 +34802,10 @@
         <v>151</v>
       </c>
       <c r="F11" s="406" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G11" s="406" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="406" customFormat="1" x14ac:dyDescent="0.25">
@@ -34825,7 +34820,7 @@
         <v>151</v>
       </c>
       <c r="H12" s="435" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="403" customFormat="1" x14ac:dyDescent="0.25">
@@ -34840,10 +34835,10 @@
         <v>43686</v>
       </c>
       <c r="C14" s="406" t="s">
+        <v>164</v>
+      </c>
+      <c r="D14" s="435" t="s">
         <v>165</v>
-      </c>
-      <c r="D14" s="435" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="410" customFormat="1" x14ac:dyDescent="0.25">
@@ -34852,10 +34847,10 @@
         <v>43689</v>
       </c>
       <c r="C15" s="410" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E15" s="410" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="410" customFormat="1" x14ac:dyDescent="0.25">
@@ -34888,7 +34883,7 @@
         <v>43693</v>
       </c>
       <c r="C19" s="410" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="401" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -34905,7 +34900,7 @@
         <v>156</v>
       </c>
       <c r="E20" s="401" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="406" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -34920,10 +34915,10 @@
         <v>157</v>
       </c>
       <c r="E21" s="406" t="s">
+        <v>206</v>
+      </c>
+      <c r="H21" s="406" t="s">
         <v>207</v>
-      </c>
-      <c r="H21" s="406" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="406" customFormat="1" x14ac:dyDescent="0.25">
@@ -34933,7 +34928,7 @@
       </c>
       <c r="D22" s="417"/>
       <c r="E22" s="406" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="403" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -34945,10 +34940,10 @@
         <v>162</v>
       </c>
       <c r="D23" s="436" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E23" s="403" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="406" customFormat="1" x14ac:dyDescent="0.25">
@@ -34972,7 +34967,7 @@
         <v>159</v>
       </c>
       <c r="E25" s="410" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="410" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -34984,10 +34979,10 @@
         <v>160</v>
       </c>
       <c r="D26" s="409" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E26" s="410" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="410" customFormat="1" x14ac:dyDescent="0.25">
@@ -34996,10 +34991,10 @@
         <v>43705</v>
       </c>
       <c r="D27" s="409" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H27" s="410" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="403" customFormat="1" x14ac:dyDescent="0.25">
@@ -35015,13 +35010,13 @@
       </c>
       <c r="C29" s="409"/>
       <c r="D29" s="410" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F29" s="410" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G29" s="410" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="406" customFormat="1" x14ac:dyDescent="0.25">
@@ -35048,10 +35043,10 @@
         <v>43712</v>
       </c>
       <c r="D32" s="405" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E32" s="406" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="403" customFormat="1" x14ac:dyDescent="0.25">
@@ -35066,7 +35061,7 @@
         <v>43714</v>
       </c>
       <c r="E34" s="406" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="410" customFormat="1" x14ac:dyDescent="0.25">
@@ -35152,19 +35147,22 @@
         <v>43728</v>
       </c>
       <c r="C44" s="417" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" s="439" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+      <c r="D44" s="429" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="439" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="472"/>
       <c r="B45" s="437">
         <v>43731</v>
       </c>
       <c r="C45" s="438" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D45" s="438" t="s">
-        <v>219</v>
+        <v>152</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="410" customFormat="1" x14ac:dyDescent="0.25">
@@ -35172,8 +35170,11 @@
       <c r="B46" s="423">
         <v>43732</v>
       </c>
+      <c r="C46" s="410" t="s">
+        <v>218</v>
+      </c>
       <c r="D46" s="410" t="s">
-        <v>218</v>
+        <v>152</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="410" customFormat="1" x14ac:dyDescent="0.25">
@@ -35182,7 +35183,7 @@
         <v>43733</v>
       </c>
       <c r="C47" s="409" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="403" customFormat="1" x14ac:dyDescent="0.25">
@@ -35197,7 +35198,7 @@
         <v>43735</v>
       </c>
       <c r="C49" s="409" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="50" spans="1:3" s="406" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -35206,7 +35207,7 @@
         <v>43738</v>
       </c>
       <c r="C50" s="405" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="51" spans="1:3" s="406" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -35215,7 +35216,7 @@
         <v>43739</v>
       </c>
       <c r="C51" s="405" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="52" spans="1:3" s="406" customFormat="1" x14ac:dyDescent="0.25">
@@ -35224,7 +35225,7 @@
         <v>43740</v>
       </c>
       <c r="C52" s="406" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="53" spans="1:3" s="403" customFormat="1" x14ac:dyDescent="0.25">
@@ -35239,7 +35240,7 @@
         <v>43742</v>
       </c>
       <c r="C54" s="405" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="55" spans="1:3" s="410" customFormat="1" x14ac:dyDescent="0.25">
@@ -35248,7 +35249,7 @@
         <v>43745</v>
       </c>
       <c r="C55" s="410" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="56" spans="1:3" s="410" customFormat="1" x14ac:dyDescent="0.25">
@@ -35349,7 +35350,7 @@
         <v>43763</v>
       </c>
       <c r="C67" s="421" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="68" spans="1:4" s="406" customFormat="1" x14ac:dyDescent="0.25">
@@ -35358,10 +35359,10 @@
         <v>43766</v>
       </c>
       <c r="C68" s="406" t="s">
+        <v>167</v>
+      </c>
+      <c r="D68" s="406" t="s">
         <v>168</v>
-      </c>
-      <c r="D68" s="406" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="69" spans="1:4" s="406" customFormat="1" x14ac:dyDescent="0.25">
@@ -35370,10 +35371,10 @@
         <v>43767</v>
       </c>
       <c r="C69" s="406" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D69" s="406" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="70" spans="1:4" s="406" customFormat="1" x14ac:dyDescent="0.25">
@@ -35382,10 +35383,10 @@
         <v>43768</v>
       </c>
       <c r="C70" s="405" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D70" s="406" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="71" spans="1:4" s="403" customFormat="1" x14ac:dyDescent="0.25">
@@ -35400,7 +35401,7 @@
         <v>43770</v>
       </c>
       <c r="C72" s="406" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="73" spans="1:4" s="410" customFormat="1" x14ac:dyDescent="0.25">
@@ -35409,10 +35410,10 @@
         <v>43773</v>
       </c>
       <c r="C73" s="410" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D73" s="410" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="74" spans="1:4" s="410" customFormat="1" x14ac:dyDescent="0.25">
@@ -35421,10 +35422,10 @@
         <v>43774</v>
       </c>
       <c r="C74" s="410" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D74" s="410" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="75" spans="1:4" s="410" customFormat="1" x14ac:dyDescent="0.25">
@@ -35433,7 +35434,7 @@
         <v>43775</v>
       </c>
       <c r="C75" s="410" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="76" spans="1:4" s="403" customFormat="1" x14ac:dyDescent="0.25">
@@ -35558,7 +35559,7 @@
         <v>43798</v>
       </c>
       <c r="C90" s="400" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="91" spans="1:3" s="410" customFormat="1" x14ac:dyDescent="0.25">
@@ -35567,7 +35568,7 @@
         <v>43801</v>
       </c>
       <c r="C91" s="410" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="92" spans="1:3" s="410" customFormat="1" x14ac:dyDescent="0.25">
@@ -35576,7 +35577,7 @@
         <v>43802</v>
       </c>
       <c r="C92" s="410" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="93" spans="1:3" s="410" customFormat="1" x14ac:dyDescent="0.25">
@@ -35585,7 +35586,7 @@
         <v>43803</v>
       </c>
       <c r="C93" s="410" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="94" spans="1:3" s="403" customFormat="1" x14ac:dyDescent="0.25">

--- a/planejamento/cronograma-v3.xlsx
+++ b/planejamento/cronograma-v3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\senai-dev-2s2019\planejamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28AD0301-BB12-4D5B-A1BA-66FA7CE82399}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39AA96E-DB96-4AC5-9C32-4BA561B9CA72}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="222">
   <si>
     <t>3. Desenvolver interfaces web utilizando frameworks</t>
   </si>
@@ -1680,6 +1680,12 @@
 Início - gufos.js
 (DOM, Id, Class, Criar Elementos)
 XMLHttpRequest - POST</t>
+  </si>
+  <si>
+    <t>Exercícios - API - Pokemon</t>
+  </si>
+  <si>
+    <t>Livros?</t>
   </si>
 </sst>
 </file>
@@ -34619,8 +34625,8 @@
   <dimension ref="A1:P103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C48" sqref="C48"/>
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B49" sqref="A49:XFD49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35162,7 +35168,7 @@
         <v>217</v>
       </c>
       <c r="D45" s="438" t="s">
-        <v>152</v>
+        <v>220</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="410" customFormat="1" x14ac:dyDescent="0.25">
@@ -35184,6 +35190,9 @@
       </c>
       <c r="C47" s="409" t="s">
         <v>173</v>
+      </c>
+      <c r="D47" s="410" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="403" customFormat="1" x14ac:dyDescent="0.25">

--- a/planejamento/cronograma-v3.xlsx
+++ b/planejamento/cronograma-v3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\senai-dev-2s2019\planejamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39AA96E-DB96-4AC5-9C32-4BA561B9CA72}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF513A2-CB15-45CD-A137-8C68ECE2C9F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="224">
   <si>
     <t>3. Desenvolver interfaces web utilizando frameworks</t>
   </si>
@@ -1682,10 +1682,22 @@
 XMLHttpRequest - POST</t>
   </si>
   <si>
-    <t>Exercícios - API - Pokemon</t>
+    <t>Exercícios
+3.frontend.js.ex1.validacoes.docx
+3.frontend.js.ex1.post.docx
+Sstop, validação email</t>
   </si>
   <si>
-    <t>Livros?</t>
+    <t>Exercícios
+3.frontend.js.ex1.get.docx - sstop
+3.frontend.js.ex4.get.docx - personagens</t>
+  </si>
+  <si>
+    <t>Exercícios
+3.frontend.js.ex2.docx</t>
+  </si>
+  <si>
+    <t>Criar Desafio</t>
   </si>
 </sst>
 </file>
@@ -34624,9 +34636,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:P103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B49" sqref="A49:XFD49"/>
+      <selection pane="bottomLeft" activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35155,11 +35167,11 @@
       <c r="C44" s="417" t="s">
         <v>219</v>
       </c>
-      <c r="D44" s="429" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" s="439" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D44" s="417" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="439" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="472"/>
       <c r="B45" s="437">
         <v>43731</v>
@@ -35168,10 +35180,10 @@
         <v>217</v>
       </c>
       <c r="D45" s="438" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" s="410" customFormat="1" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="410" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="472"/>
       <c r="B46" s="423">
         <v>43732</v>
@@ -35179,8 +35191,8 @@
       <c r="C46" s="410" t="s">
         <v>218</v>
       </c>
-      <c r="D46" s="410" t="s">
-        <v>152</v>
+      <c r="D46" s="409" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="410" customFormat="1" x14ac:dyDescent="0.25">
@@ -35192,7 +35204,7 @@
         <v>173</v>
       </c>
       <c r="D47" s="410" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="403" customFormat="1" x14ac:dyDescent="0.25">
